--- a/va_facility_data_2025-02-20/Bellevue VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bellevue%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bellevue VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bellevue%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Raaccd540892e4d71917438e75e295729"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ref23d84a1c344b0eb6c79c7bf012c2c3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf69ec0c073c34c7ea0e8964f6c0383b5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfa55108ff1424fbb9963070a1d2a532f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Reb5ecb56ca6546dfa111154ff7163232"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb46a5fffe3fc4c95addb8f34f1d28886"/>
   </x:sheets>
 </x:workbook>
 </file>
